--- a/hbm3_xl.xlsx
+++ b/hbm3_xl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\XL-manipulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarioIanniello\Documents\XL-manipulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F69F42-521E-411B-B905-4C933D4ED16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75ABC82A-CA67-49FF-A38C-83C2BC58342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{804C6504-52F2-4ACF-89EB-1FC8E50BCAE7}"/>
+    <workbookView xWindow="30" yWindow="450" windowWidth="28770" windowHeight="15750" xr2:uid="{F67F9E82-47F8-47A4-B5F2-90DAB3A0C410}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6103,7 +6103,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{DC489F54-5580-423B-B688-F8520C2F5463}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{67DB7B8F-DE87-430D-B91F-EBDE26F5A71F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6414,22 +6414,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4F2D28-70A1-4D3F-81D8-B6695214E533}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E61F9B-6F34-45B3-9075-C1D65653C230}">
   <dimension ref="A1:F7776"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:F7776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="155.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
